--- a/CLASS/top_info.xlsx
+++ b/CLASS/top_info.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor\Documents\Python\NLP\CLASS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4B1825-6AB9-4F10-A476-40019A1138D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="top_info" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="top_info" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,25 +25,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
-  <si>
-    <t xml:space="preserve">Тема</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Описание</t>
-  </si>
-  <si>
-    <t xml:space="preserve">уствновка 1c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">у Новожиловой был заменен комп. на новом компе нет 1с. 
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="105">
+  <si>
+    <t>Тема</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>уствновка 1c</t>
+  </si>
+  <si>
+    <t>у Новожиловой был заменен комп. на новом компе нет 1с. 
 имя нового компа DST00872</t>
   </si>
   <si>
-    <t xml:space="preserve">Проблема с AutoCAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">!image001.jpg|thumbnail!  
+    <t>Проблема с AutoCAD</t>
+  </si>
+  <si>
+    <t>!image001.jpg|thumbnail!  
 {color:windowtext}Доброе утро!!!{color} 
 {color:windowtext}Помогите пожалуйста решить проблему. При запуске программы  выдает ошибку и закрывает файл{color} 
 {color:windowtext} {color} 
@@ -54,10 +59,10 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">Сотрудники</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый день! 
+    <t>Сотрудники</t>
+  </si>
+  <si>
+    <t>Добрый день! 
 По регистрации в str.mos.ru работников отдела №11 в списках так же отсутствуют: Кадыков А.С.; Козлов П.И.; Дюканов А.И. 
 {color:#1F4E79}УВЕДОМЛЕНИЕ О КОНФИДЕНЦИАЛЬНОСТИ:{color}{color:#1F497D}{color}  
 {color:#1F4E79}Содержание настоящего сообщения, включая контактную информацию, является собственностью ГБУ «Мосгоргеотрест»{color}{color:#1F497D}{color}  
@@ -73,16 +78,16 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">пароль для входа в БД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Доброе утро! Заблокировался вход в БД. Не знаю какой пароль. Телефон  Дарья</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Внешняя почта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">День добрый. 
+    <t>пароль для входа в БД</t>
+  </si>
+  <si>
+    <t>Доброе утро! Заблокировался вход в БД. Не знаю какой пароль. Телефон  Дарья</t>
+  </si>
+  <si>
+    <t>Внешняя почта</t>
+  </si>
+  <si>
+    <t>День добрый. 
 Прошу сбросить пароль к почте UlinPA@str.mos.ru 
  _{color:#002060} _С уважением,_{color}_  
 {color:#002060} {color}{color:#1F4E79}{color} 
@@ -102,19 +107,19 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">Рассылка о регистрации в ЕПС (str.mos.ru)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|{color:black} Калинушкин{color} |{color:black} Сергей{color} |{color:black} Николаевич{color} |{color:black} Отдел   №3       таб. № 1090          {color} |  *{color:black} *skalinushkin*{color}* | 
+    <t>Рассылка о регистрации в ЕПС (str.mos.ru)</t>
+  </si>
+  <si>
+    <t>|{color:black} Калинушкин{color} |{color:black} Сергей{color} |{color:black} Николаевич{color} |{color:black} Отдел   №3       таб. № 1090          {color} |  *{color:black} *skalinushkin*{color}* | 
 |{color:black}  {color}{color:black}  {color}{color:black}  {color} |{color:black}  {color} |{color:black}  {color} |{color:black}  {color} |  *{color:black} * *{color}* | 
 Доброе утро! Данному сотруднику отдела № 3 не приходили информационные письма с логином\паролем и инструкции. Прошу прислать. 
  </t>
   </si>
   <si>
-    <t xml:space="preserve">Список ответственных за получение паролей для работников ОВБ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Доброе утро!  
+    <t>Список ответственных за получение паролей для работников ОВБ.</t>
+  </si>
+  <si>
+    <t>Доброе утро!  
 h2.  Список ответственных за получение паролей для работников ОВБ.
 h2.   
 h2.   
@@ -122,39 +127,39 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">Учетные данные ЕПС для первоначального входа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прошу выдать учетную запись в Единой почтовой системе (ЕПС, почта @str.mos.ru) Щербаковой Л.А.(таб.) 
+    <t>Учетные данные ЕПС для первоначального входа</t>
+  </si>
+  <si>
+    <t>Прошу выдать учетную запись в Единой почтовой системе (ЕПС, почта @str.mos.ru) Щербаковой Л.А.(таб.) 
  </t>
   </si>
   <si>
     <t xml:space="preserve">Прошу восстановить пароль @str.mos.ru </t>
   </si>
   <si>
-    <t xml:space="preserve">Прошу восстановить пароль @str.mos.ru (утрачен в 2021 г.) для входа в ЕПС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Заявка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Коллеги, добрый день! 
+    <t>Прошу восстановить пароль @str.mos.ru (утрачен в 2021 г.) для входа в ЕПС</t>
+  </si>
+  <si>
+    <t>Заявка</t>
+  </si>
+  <si>
+    <t>Коллеги, добрый день! 
 В соответствии со служебной запиской Заместителя Управляющего Баранова А.В. от 29.08.2022 № В-АУП-11225/22 и в соответствии с приложенной служебной запиской, прошу Вас создать мне учетную запись на портале в ЕПС, почта @str.mos.ru.{color:#1F497D}.{color} 
 Спасибо! 
 {color:#1F4E79} {color} 
  </t>
   </si>
   <si>
-    <t xml:space="preserve">прислать учётные данные ЕПС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Просьба прислать учётные данные ЕПС для первоначального входа.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FW: Получение паролей ЕПС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{color:#1F497D}Добрый день!{color} 
+    <t>прислать учётные данные ЕПС</t>
+  </si>
+  <si>
+    <t>Просьба прислать учётные данные ЕПС для первоначального входа.</t>
+  </si>
+  <si>
+    <t>FW: Получение паролей ЕПС</t>
+  </si>
+  <si>
+    <t>{color:#1F497D}Добрый день!{color} 
 {color:#1F497D}Прошу прислать логин и пароль для ЕПС еще для одного сотрудника, который не помнит пароля: Савватевв Ярослав Викторович{color} 
 {color:#1F497D} {color} 
  *From:* Обухов Владимир Владимирович 
@@ -184,7 +189,7 @@
     <t xml:space="preserve">Восстановить почту  str.mos.ru </t>
   </si>
   <si>
-    <t xml:space="preserve">Доброе утро! Прошу восстановить  почту str.mos.ru 
+    <t>Доброе утро! Прошу восстановить  почту str.mos.ru 
 Телефон для контакта +7
 {color:#1F497D}С уважением,{color} 
 {color:#1F497D}Инженер 1-ой категории отдела №9 (ОПС){color} 
@@ -192,10 +197,10 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">Обновить пароль</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Доброе утро, коллеги. 
+    <t>Обновить пароль</t>
+  </si>
+  <si>
+    <t>Доброе утро, коллеги. 
 Не могу зайти на {color:#1F497D}str{color}{color:#1F497D}.{color}{color:#1F497D}mos{color}{color:#1F497D}.{color}{color:#1F497D}ru{color}{color:#1F497D} почту, так как давно ей не пользовалась. Просьба обновить пароль.{color} 
 {color:#1F497D} {color} 
 {color:#1F497D}Телефон для связи 89152. Работаю сейчас удаленно{color}{color:#1F497D}{color}  
@@ -203,16 +208,16 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">Расчётные машины СС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Здравствуйте, зависли расчётные машины ссс02, ссс03 и ссс06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">восстановление почты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Доброе утро! 
+    <t>Расчётные машины СС</t>
+  </si>
+  <si>
+    <t>Здравствуйте, зависли расчётные машины ссс02, ссс03 и ссс06</t>
+  </si>
+  <si>
+    <t>восстановление почты</t>
+  </si>
+  <si>
+    <t>Доброе утро! 
 Прошу восстановить ранее установленную почту  [KorchinovaLA@str.mos.ru|mailto:KorchinovaLA@str.mos.ru] 
 Спасибо. 
  </t>
@@ -221,23 +226,23 @@
     <t xml:space="preserve">FW: отгулы </t>
   </si>
   <si>
-    <t xml:space="preserve">восстановление почтового ящика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Доброе утро! Прошу восстановить ранее подключенную почту  ChebinaAV@str.mos.ru 
+    <t>восстановление почтового ящика</t>
+  </si>
+  <si>
+    <t>Доброе утро! Прошу восстановить ранее подключенную почту  ChebinaAV@str.mos.ru 
 {color:#1F497D}С уважением,{color} 
 !image001.png|thumbnail! 
  </t>
   </si>
   <si>
-    <t xml:space="preserve">Здравствуйте! 
+    <t>Здравствуйте! 
 Необходимо изменить пароль для внешней почты, т.к. он был введен на русском.</t>
   </si>
   <si>
-    <t xml:space="preserve">заменить сборник отходов аппарат Xerox AltaLik C8035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Доброе утро! 
+    <t>заменить сборник отходов аппарат Xerox AltaLik C8035</t>
+  </si>
+  <si>
+    <t>Доброе утро! 
 Просьба заменить сборник отходов аппарат  Xerox AltaLik C8035. 
 Спасибо! 
  _{color:#1F497D} _ _{color}_ 
@@ -245,52 +250,52 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">Не могу удаленно подключиться к компьютеру iitp_216_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{color:#000000}{color}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">не могу подключиться через рдп</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{color:#000000}Не могу подключиться черtз рдп к удаленному компьютеру Dst00155.{color}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пароль на str.mos.ru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">случайно при смене пароля стояла русская раскладка клавиатуры. в результате смены пароля система новый пароль не принимает.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IWDM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прошу предоставить выгрузку системных журналов, журнала приложений с сервера InfoWatch Device Monitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проблема в работе PlanTracer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый день! Прошу вас решить проблему в работе  PlanTracer, проблемы с отображением лестницы. Направляющая вылетает за пределы, и выглядит следующим образом: 
+    <t>Не могу удаленно подключиться к компьютеру iitp_216_18</t>
+  </si>
+  <si>
+    <t>{color:#000000}{color}</t>
+  </si>
+  <si>
+    <t>не могу подключиться через рдп</t>
+  </si>
+  <si>
+    <t>{color:#000000}Не могу подключиться черtз рдп к удаленному компьютеру Dst00155.{color}</t>
+  </si>
+  <si>
+    <t>Пароль на str.mos.ru</t>
+  </si>
+  <si>
+    <t>случайно при смене пароля стояла русская раскладка клавиатуры. в результате смены пароля система новый пароль не принимает.</t>
+  </si>
+  <si>
+    <t>IWDM</t>
+  </si>
+  <si>
+    <t>Прошу предоставить выгрузку системных журналов, журнала приложений с сервера InfoWatch Device Monitor</t>
+  </si>
+  <si>
+    <t>Проблема в работе PlanTracer</t>
+  </si>
+  <si>
+    <t>Добрый день! Прошу вас решить проблему в работе  PlanTracer, проблемы с отображением лестницы. Направляющая вылетает за пределы, и выглядит следующим образом: 
 !image001.png|thumbnail! Должна выглядеть так: !image002.png|thumbnail! 
 Название устройства: LEN-VDI-417 
  </t>
   </si>
   <si>
-    <t xml:space="preserve">RE: #600-267647: Программное обеспечение PrinCe (ПО CHC CGO 2.0 RTK)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕПС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Восстановить пароль ЕПС Фролов П,А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">проблемы с почтой . при отправке возникают разного рода ошибки ...2. пыталась направить по внутренней почте</t>
-  </si>
-  <si>
-    <t xml:space="preserve">!image001.png|thumbnail! 
+    <t>RE: #600-267647: Программное обеспечение PrinCe (ПО CHC CGO 2.0 RTK)</t>
+  </si>
+  <si>
+    <t>ЕПС</t>
+  </si>
+  <si>
+    <t>Восстановить пароль ЕПС Фролов П,А.</t>
+  </si>
+  <si>
+    <t>проблемы с почтой . при отправке возникают разного рода ошибки ...2. пыталась направить по внутренней почте</t>
+  </si>
+  <si>
+    <t>!image001.png|thumbnail! 
  *{color:#1F3864} *С уважением,*{color}*{color:#1F497D}{color} 
  *{color:#1F3864} * *{color}*{color:#1F497D}{color} 
  *{color:#1F3864} *Хасанова Гузель  Данисовна *{color}*{color:#1F497D}{color} 
@@ -318,37 +323,37 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">Семёнова Мария Владимировна &lt;mvsemenova@MGGT.RU&gt;
+    <t>Семёнова Мария Владимировна &lt;mvsemenova@MGGT.RU&gt;
 нет в таблице. Просьба созать у.з епс</t>
   </si>
   <si>
-    <t xml:space="preserve">Обновили на новую подпись Назаркин, в АС выдает ошибку</t>
+    <t>Обновили на новую подпись Назаркин, в АС выдает ошибку</t>
   </si>
   <si>
     <t xml:space="preserve">
 !image001.png|thumbnail!</t>
   </si>
   <si>
-    <t xml:space="preserve">Расходники 2й отдел</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый день, отправьте во второй отдел 2 розово/синих головы, и 1 черную для HP T7100, спасибо.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Списки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В присланном списке str.mos.ru на работников отдела №11 нет Гулько А.Д. 
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">пропал почтовый ящик  @str.mos.ru. Прошу восстановить</t>
-  </si>
-  <si>
-    <t xml:space="preserve">отдел №6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ответственные за получение паролей: 
+    <t>Расходники 2й отдел</t>
+  </si>
+  <si>
+    <t>Добрый день, отправьте во второй отдел 2 розово/синих головы, и 1 черную для HP T7100, спасибо.</t>
+  </si>
+  <si>
+    <t>Списки</t>
+  </si>
+  <si>
+    <t>В присланном списке str.mos.ru на работников отдела №11 нет Гулько А.Д. 
+ </t>
+  </si>
+  <si>
+    <t>пропал почтовый ящик  @str.mos.ru. Прошу восстановить</t>
+  </si>
+  <si>
+    <t>отдел №6</t>
+  </si>
+  <si>
+    <t>Ответственные за получение паролей: 
 Чекалин Алексей Владимирович – начальник сектора 
 Батурин Алексей Олегович – начальник группы 
 Таненбаум Михаил Юрьевич – начальник группы 
@@ -358,7 +363,7 @@
     <t xml:space="preserve">Подключение к рассылке от Oracle </t>
   </si>
   <si>
-    <t xml:space="preserve">Здравствуйте! 
+    <t>Здравствуйте! 
 Прошу подключить Морозову Е. В. к рассылке от Oracle: 
 Работы по наряду закрыты - Работы по наряду закрыты № % 
 Изменение статуса заказа  - Положительное заключение 
@@ -367,61 +372,61 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">заявка не снимается</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый день. 
+    <t>заявка не снимается</t>
+  </si>
+  <si>
+    <t>Добрый день. 
 Не получается снять заявку. 
 !image001.jpg|thumbnail! 
  </t>
   </si>
   <si>
-    <t xml:space="preserve">Отзыв: Список активных учетных записей ЕПС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пользователь Микутра Яна Васильевна хотел бы отозвать сообщение, "Список активных учетных записей ЕПС".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Список активных учетных записей ЕПС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  
+    <t>Отзыв: Список активных учетных записей ЕПС</t>
+  </si>
+  <si>
+    <t>Пользователь Микутра Яна Васильевна хотел бы отозвать сообщение, "Список активных учетных записей ЕПС".</t>
+  </si>
+  <si>
+    <t>Список активных учетных записей ЕПС</t>
+  </si>
+  <si>
+    <t>  
 {color:#1F497D}Добрый день.{color} 
 {color:#1F497D} {color} 
 {color:#1F497D}В соответствии со служебной запиской В - АУП - 11225/22 от 29.08.2022 Первый отдел направляет списки активных учетных записей ЕПС:{color} 
  </t>
   </si>
   <si>
-    <t xml:space="preserve">твет на служебную записку В - АУП - 11225/22 от 29.08.2022 сообщаю:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В ответ на служебную записку В - АУП - 11225/22 от 29.08.2022 сообщаю: 
+    <t>твет на служебную записку В - АУП - 11225/22 от 29.08.2022 сообщаю:</t>
+  </si>
+  <si>
+    <t>В ответ на служебную записку В - АУП - 11225/22 от 29.08.2022 сообщаю: 
 Ответственные от АХО Зарафутдинова Д.Х., Козеенкова С.Н., Юрцук Н.П., Шаров Д.А. 
  </t>
   </si>
   <si>
-    <t xml:space="preserve">Прошу восстановить допуск к почтовому ящику GoncharovaNY2@str.mos.ru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прошу восстановить допуск к почтовому ящику  GoncharovaNY2@str.mos.ru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Информационная рассылка: СДО МГГТ, обновление системы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Уважаемые пользователи! 
+    <t>Прошу восстановить допуск к почтовому ящику GoncharovaNY2@str.mos.ru</t>
+  </si>
+  <si>
+    <t>Прошу восстановить допуск к почтовому ящику  GoncharovaNY2@str.mos.ru</t>
+  </si>
+  <si>
+    <t>Информационная рассылка: СДО МГГТ, обновление системы</t>
+  </si>
+  <si>
+    <t>Уважаемые пользователи! 
 Сегодня 29.08.2022г. в период с 18-00 до 19-00 в СДО МГГТ планируются работы по обновлению. 
 Система может работать нестабильно. 
  </t>
   </si>
   <si>
-    <t xml:space="preserve">{color:#1F497D}Добрый день.{color} 
+    <t>{color:#1F497D}Добрый день.{color} 
 {color:#1F497D} {color} 
 {color:#1F497D}В соответствии со служебной запиской В - АУП - 11225/22 от 29.08.2022 Первый отдел направляет списки активных учетных записей ЕПС:{color} 
  </t>
   </si>
   <si>
-    <t xml:space="preserve">Прошу выдать учетную запись в Единой почтовой системе (ЕПС, почта @str.mos.ru) следующим работникам: 
+    <t>Прошу выдать учетную запись в Единой почтовой системе (ЕПС, почта @str.mos.ru) следующим работникам: 
 | п/п | ФИО | Табельный номер | 
 | 1 | Кравцов Дмитрий Александрович   | 2025 | 
 | 2 | Плетнев Александр Васильевич   | 165   | 
@@ -432,17 +437,17 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">Добрый день.  Мне необходимо восстановить доступ к @str.mos.ru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый день. 
+    <t>Добрый день.  Мне необходимо восстановить доступ к @str.mos.ru</t>
+  </si>
+  <si>
+    <t>Добрый день. 
 Мне необходимо восстановить доступ к @str.mos.ru</t>
   </si>
   <si>
-    <t xml:space="preserve">почта в mggt.ru.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый день! 
+    <t>почта в mggt.ru.</t>
+  </si>
+  <si>
+    <t>Добрый день! 
 Прошу выдать пароль для почтового ящика в домене mggt.ru.   
 Кузнецову Александру Ивановичу (таб.№ 1202) 
  *_{color:#1F3864} *_С уважением,_*{color}_* 
@@ -463,40 +468,40 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">доступ к почте @str.mos.ru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый день! 
+    <t>доступ к почте @str.mos.ru</t>
+  </si>
+  <si>
+    <t>Добрый день! 
 Мне необходимо восстановить доступ к почте  @str.mos.ru 
 С уважением, 
 Костюченко К.Е.</t>
   </si>
   <si>
-    <t xml:space="preserve">Почта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В соответствии со служебной запиской Заместителя Управляющего Баранова А.В. от 29.08.2022 № В-АУП-11225/22, и в соответствии с приложенной служебной запиской, необходимо создать учетную запись на портале в ЕПС, почта {color:red}@{color}{color:red}str{color}{color:red}.{color}{color:red}mos{color}{color:red}.{color}{color:red}ru{color}{color:red}.,{color}{color:black} начальнику{color} группы по делам ГО и ЧС Дюкову А.В., в связи с тем, что при создании предыдущей учетной записи на {color:red}@{color}{color:red}str{color}{color:red}.{color}{color:red}mos{color}{color:red}.{color}{color:red}ru{color}{color:red}.{color} пароль для входа в почту выдан не был. 
+    <t>Почта</t>
+  </si>
+  <si>
+    <t>В соответствии со служебной запиской Заместителя Управляющего Баранова А.В. от 29.08.2022 № В-АУП-11225/22, и в соответствии с приложенной служебной запиской, необходимо создать учетную запись на портале в ЕПС, почта {color:red}@{color}{color:red}str{color}{color:red}.{color}{color:red}mos{color}{color:red}.{color}{color:red}ru{color}{color:red}.,{color}{color:black} начальнику{color} группы по делам ГО и ЧС Дюкову А.В., в связи с тем, что при создании предыдущей учетной записи на {color:red}@{color}{color:red}str{color}{color:red}.{color}{color:red}mos{color}{color:red}.{color}{color:red}ru{color}{color:red}.{color} пароль для входа в почту выдан не был. 
 !image003.png|thumbnail!{color:#1F4E79}{color} 
 {color:#1F4E79}С уважением, А.В. Волонтырь,{color}  
  </t>
   </si>
   <si>
-    <t xml:space="preserve">STR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Восстановление пароля str</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый день! Прошу настроить почту, которая str.mos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый день! Прошу настроить почту, которая  str.mos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ответственный отд.№11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ответственный от отдела №11 за получение паролей для работников, не имеющих почтовых ящиков в домене mggt.ru. Камских Георгий Дмитриевич. 
+    <t>STR</t>
+  </si>
+  <si>
+    <t>Восстановление пароля str</t>
+  </si>
+  <si>
+    <t>Добрый день! Прошу настроить почту, которая str.mos</t>
+  </si>
+  <si>
+    <t>Добрый день! Прошу настроить почту, которая  str.mos</t>
+  </si>
+  <si>
+    <t>Ответственный отд.№11</t>
+  </si>
+  <si>
+    <t>Ответственный от отдела №11 за получение паролей для работников, не имеющих почтовых ящиков в домене mggt.ru. Камских Георгий Дмитриевич. 
 Прошу направить информацию в кротчайшее время!!!!! 
                      С уважением  
 {color:#1F4E79}УВЕДОМЛЕНИЕ О КОНФИДЕНЦИАЛЬНОСТИ:{color}{color:#1F497D}{color}  
@@ -513,69 +518,54 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve">Подключение компьютера</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый день, прошу подключить компьютер Абросимову С.В. в боксе 36а, помещение 5, 2-й этаж 
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">B1:B55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">настройка АРМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прошу выполнить необходимые настройки на рабочем месте работка ОКР Самсова А.Е., связанные с тестированием нового релиза  РеИнформ  
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ответственный за получение паролей В-АУП-11225/22 от 29.08.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Добрый день! 
+    <t>Подключение компьютера</t>
+  </si>
+  <si>
+    <t>Добрый день, прошу подключить компьютер Абросимову С.В. в боксе 36а, помещение 5, 2-й этаж 
+ </t>
+  </si>
+  <si>
+    <t>настройка АРМ</t>
+  </si>
+  <si>
+    <t>Прошу выполнить необходимые настройки на рабочем месте работка ОКР Самсова А.Е., связанные с тестированием нового релиза  РеИнформ  
+ </t>
+  </si>
+  <si>
+    <t>Ответственный за получение паролей В-АУП-11225/22 от 29.08.2022</t>
+  </si>
+  <si>
+    <t>Добрый день! 
 Лескив А.И. 
  </t>
   </si>
   <si>
-    <t xml:space="preserve">На служебную записку В - АУП - 11225/22 от 29.08.2022   Ответственный от бухгалтерии за предоставление списка активных учетных записей ЕПС . – Базыкина Я.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{color:#1F497D} {color} 
+    <t>На служебную записку В - АУП - 11225/22 от 29.08.2022   Ответственный от бухгалтерии за предоставление списка активных учетных записей ЕПС . – Базыкина Я.А.</t>
+  </si>
+  <si>
+    <t>{color:#1F497D} {color} 
 В бухгалтерии нет работников, не имеющих почтовых ящиков в домене mggt.ru. , поэтому  
 Ответственный  за получение паролей для работников, не имеющих почтовых ящиков в домене mggt.ru. не назначается 
 Ответственный от бухгалтерии за предоставление списка активных учетных записей ЕПС . – Базыкина Я.А. 
  </t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -587,7 +577,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -595,512 +585,941 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="71.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="262.61"/>
+    <col min="1" max="1" width="35.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="166.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="369.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="369.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="159.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="617.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="216.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="216.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="661.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="216.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="505.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="114.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="408" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>103</v>
+      <c r="C55" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>

--- a/CLASS/top_info.xlsx
+++ b/CLASS/top_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor\Documents\Python\NLP\CLASS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4B1825-6AB9-4F10-A476-40019A1138D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80DE8BF-CC8A-4FFF-8F71-D0E4A20C34DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="105">
   <si>
     <t>Тема</t>
   </si>
@@ -910,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1016,7 +1016,7 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1030,7 +1030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1156,7 +1156,7 @@
         <v>41</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1167,7 +1167,7 @@
         <v>43</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1252,7 +1252,7 @@
         <v>57</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1263,7 +1263,7 @@
         <v>59</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
@@ -1370,7 +1370,7 @@
         <v>78</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="114.75" x14ac:dyDescent="0.2">
@@ -1381,7 +1381,7 @@
         <v>79</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="242.25" x14ac:dyDescent="0.2">
@@ -1469,7 +1469,7 @@
         <v>94</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
